--- a/biology/Zoologie/Holotheria/Holotheria.xlsx
+++ b/biology/Zoologie/Holotheria/Holotheria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Holotheria (holothères en français) sont un clade extrêmement diversifié de mammifères descendant du dernier ancêtre commun de Kuehneotherium et des Theria (groupe comprenant les marsupiaux et placentaires)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Holotheria (holothères en français) sont un clade extrêmement diversifié de mammifères descendant du dernier ancêtre commun de Kuehneotherium et des Theria (groupe comprenant les marsupiaux et placentaires).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) John R. Wible, Guillermo W. Rougier, Michael J.Novacek et Malcolm C. McKenna, « Earliest Eutherian Ear Region: A Petrosal Referred to Prokennalestes from the Early Cretaceous of Mongolia », American Museum Novitates, New York, Musée américain d'histoire naturelle, vol. 3322,‎ janvier 2001, p. 1-44 (ISSN 0003-0082 et 1937-352X, OCLC 47720325, DOI 10.1206/0003-0082(2001)322&lt;0001:EEERAP&gt;2.0.CO;2, lire en ligne)</t>
         </is>
